--- a/medicine/Enfance/Corinne_Dreyfuss/Corinne_Dreyfuss.xlsx
+++ b/medicine/Enfance/Corinne_Dreyfuss/Corinne_Dreyfuss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corinne Dreyfuss (née le 20 février 1964) est une auteure et illustratrice française en littérature jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corinne Dreyfuss est née à Mulhouse. Elle étudie à l'École supérieure d'art de Grenoble puis à Mulhouse, avant de partir voyager pendant deux ans. À partir de 1990, elle devient peintre et expose régulièrement. Elle devient illustratrice pour enfants à partir de 1998. Elle anime également des ateliers et écrit pour Marie Claire Idées. Elle vit actuellement à Marseille[1],[2],[3]. 
-En 2016, elle a obtenu le Prix Pitchou[4] et le Prix Sorcières[5], catégorie « tout-petits », pour Pomme Pomme Pomme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corinne Dreyfuss est née à Mulhouse. Elle étudie à l'École supérieure d'art de Grenoble puis à Mulhouse, avant de partir voyager pendant deux ans. À partir de 1990, elle devient peintre et expose régulièrement. Elle devient illustratrice pour enfants à partir de 1998. Elle anime également des ateliers et écrit pour Marie Claire Idées. Elle vit actuellement à Marseille. 
+En 2016, elle a obtenu le Prix Pitchou et le Prix Sorcières, catégorie « tout-petits », pour Pomme Pomme Pomme.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[6],[7] dont :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle a participé à de nombreuses œuvres, dont :
 Premier jours d'école (2007)
 Mon ami à moi (2007)
-Plus fort[8], illustration de Maud Legrand, Actes Sud junior, 2009  (ISBN 978-2-7427-7978-9)
+Plus fort, illustration de Maud Legrand, Actes Sud junior, 2009  (ISBN 978-2-7427-7978-9)
 L'Amour à la récré (2010)
 Le Petit Roro, mon tout tout premier dico (2012)
 Premier jour d'école (2016)
@@ -580,11 +596,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2016 : Prix Pitchou[4] pour Pomme, pomme, pomme
-2016 : Prix Sorcières[5], catégorie Tout-Petits, pour Pomme, pomme, pomme
-2022 : Sélection Prix Sorcières[9] Catégorie Carrément beau maxi pour C'est l'histoire, avec Charlotte des Ligneris</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2016 : Prix Pitchou pour Pomme, pomme, pomme
+2016 : Prix Sorcières, catégorie Tout-Petits, pour Pomme, pomme, pomme
+2022 : Sélection Prix Sorcières Catégorie Carrément beau maxi pour C'est l'histoire, avec Charlotte des Ligneris</t>
         </is>
       </c>
     </row>
